--- a/app/celery/tasks/tag/files/tags.xlsx
+++ b/app/celery/tasks/tag/files/tags.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\pyramid\app\celery\tasks\building\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alex\projects\pyramid\pyramid\app\celery\tasks\tag\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03B5648-C7B8-44B3-9C3F-15D5DD7316D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71192A-D489-4445-B1D2-BD3388BECFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51690" yWindow="1995" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>title</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>Энергия А+ за сутки</t>
+  </si>
+  <si>
+    <t>AverageAbsolutePressurePerDay</t>
+  </si>
+  <si>
+    <t>TemperatureMinPerDay</t>
+  </si>
+  <si>
+    <t>VolumeMaxPerDay</t>
+  </si>
+  <si>
+    <t>Максимальный объем за сутки</t>
+  </si>
+  <si>
+    <t>Минимальная температура за сутки</t>
+  </si>
+  <si>
+    <t>Среднее абсолютное давление за сутки</t>
+  </si>
+  <si>
+    <t>VolumeForwardFixDay</t>
+  </si>
+  <si>
+    <t>Объем в прямом направлении на начало суток</t>
   </si>
 </sst>
 </file>
@@ -398,16 +422,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -467,7 +491,40 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/app/celery/tasks/tag/files/tags.xlsx
+++ b/app/celery/tasks/tag/files/tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alex\projects\pyramid\pyramid\app\celery\tasks\tag\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71192A-D489-4445-B1D2-BD3388BECFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D675B37B-C680-41EC-9AE2-FF4982A990AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51690" yWindow="1995" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52200" yWindow="2505" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/app/celery/tasks/tag/files/tags.xlsx
+++ b/app/celery/tasks/tag/files/tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alex\projects\pyramid\pyramid\app\celery\tasks\tag\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D675B37B-C680-41EC-9AE2-FF4982A990AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1922C77E-159A-4AF2-B3A6-A79FFF73EF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52200" yWindow="2505" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52710" yWindow="3015" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>title</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Объем в прямом направлении на начало суток</t>
+  </si>
+  <si>
+    <t>Мощность</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,8 +526,12 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/app/celery/tasks/tag/files/tags.xlsx
+++ b/app/celery/tasks/tag/files/tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alex\projects\pyramid\pyramid\app\celery\tasks\tag\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1922C77E-159A-4AF2-B3A6-A79FFF73EF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318D906-57E5-487C-B952-2183680880C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52710" yWindow="3015" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53220" yWindow="3525" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>title</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Объем в прямом направлении на начало суток</t>
-  </si>
-  <si>
-    <t>Мощность</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,12 +523,8 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/app/celery/tasks/tag/files/tags.xlsx
+++ b/app/celery/tasks/tag/files/tags.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alex\projects\pyramid\pyramid\app\celery\tasks\tag\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318D906-57E5-487C-B952-2183680880C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE0681-8753-4B77-890F-9428500240BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53220" yWindow="3525" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>title</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>Объем в прямом направлении на начало суток</t>
+  </si>
+  <si>
+    <t>VolumePerDay</t>
+  </si>
+  <si>
+    <t>AverageTemperaturePerDay</t>
+  </si>
+  <si>
+    <t>Средняя температура за сутки</t>
+  </si>
+  <si>
+    <t>Объем за сутки</t>
+  </si>
+  <si>
+    <t>MassPerDay</t>
+  </si>
+  <si>
+    <t>Масса за сутки</t>
   </si>
 </sst>
 </file>
@@ -119,12 +137,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,9 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -422,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -490,41 +516,69 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/app/celery/tasks/tag/files/tags.xlsx
+++ b/app/celery/tasks/tag/files/tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alex\projects\pyramid\pyramid\app\celery\tasks\tag\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE0681-8753-4B77-890F-9428500240BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF848E9-3DEB-4C30-82C0-C81825206E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>title</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Масса за сутки</t>
+  </si>
+  <si>
+    <t>VolumePerDayProfile</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,11 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,7 +470,7 @@
     <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -476,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -492,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -500,7 +510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -508,7 +518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -516,7 +526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -524,7 +534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -532,7 +542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -540,7 +550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -548,37 +558,65 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
